--- a/Assets/PartA/Excel/patternlist.xlsx
+++ b/Assets/PartA/Excel/patternlist.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +540,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Assets/PartA/Excel/patternlist.xlsx
+++ b/Assets/PartA/Excel/patternlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="560" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -521,6 +521,40 @@
       </c>
       <c r="E6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
